--- a/tests/testthat/_snaps/knitxl/text.xlsx
+++ b/tests/testthat/_snaps/knitxl/text.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Some text</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t xml:space="preserve">Some text 2 more text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Item 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Item 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Item 3</t>
   </si>
 </sst>
 </file>
@@ -395,26 +386,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/tests/testthat/_snaps/knitxl/text.xlsx
+++ b/tests/testthat/_snaps/knitxl/text.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Some text</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Some text 2</t>
@@ -366,24 +363,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
